--- a/biology/Médecine/Baxter_International/Baxter_International.xlsx
+++ b/biology/Médecine/Baxter_International/Baxter_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Baxter International est une entreprise pharmaceutique américaine basée à Deerfield, Illinois. Celle-ci fut créée en 1931.
@@ -512,15 +524,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2012, l'entreprise déclare employer plus de 48 000 personnes dans le monde.
-En décembre 2012, Baxter déclare racheter l'entreprise suédoise Gambro, spécialisée dans les traitements rénaux, pour 4 milliards de $[2].
-En mars 2014, Baxter annonce la scission de ses activités de biotechnologies, activités ayant un chiffre d'affaires total de 6 milliards de dollars[3].
-En juillet 2014, Pfizer acquiert 2 vaccins (NeisVac-C et FSME-IMMUN) à Baxter pour 635 millions de dollars[4].
-En mai 2015, Baxter acquiert au travers de sa filiale Baxalta, deux traitements de la leucémie appartenant à l'entreprise italienne Sigma-Tau Finanziaria pour 900 millions de dollars[5]. En juillet 2015, Baxter scinde ses activités biopharmaceutiques, regroupée dans Baxalta, spécialisée notamment dans l'hémophilie, ancienne filiale qui est introduite en bourse[6].
-En décembre 2019, Sanofi annonce la vente de ses activités dans le matériel médical Seprafilm à Baxter International[7].
-En août 2021, Baxter annonce l'acquisition de Hill-Rom, une entreprise spécialisée dans les lits médicaux, pour 10,5 milliards de dollars[8].
+En décembre 2012, Baxter déclare racheter l'entreprise suédoise Gambro, spécialisée dans les traitements rénaux, pour 4 milliards de $.
+En mars 2014, Baxter annonce la scission de ses activités de biotechnologies, activités ayant un chiffre d'affaires total de 6 milliards de dollars.
+En juillet 2014, Pfizer acquiert 2 vaccins (NeisVac-C et FSME-IMMUN) à Baxter pour 635 millions de dollars.
+En mai 2015, Baxter acquiert au travers de sa filiale Baxalta, deux traitements de la leucémie appartenant à l'entreprise italienne Sigma-Tau Finanziaria pour 900 millions de dollars. En juillet 2015, Baxter scinde ses activités biopharmaceutiques, regroupée dans Baxalta, spécialisée notamment dans l'hémophilie, ancienne filiale qui est introduite en bourse.
+En décembre 2019, Sanofi annonce la vente de ses activités dans le matériel médical Seprafilm à Baxter International.
+En août 2021, Baxter annonce l'acquisition de Hill-Rom, une entreprise spécialisée dans les lits médicaux, pour 10,5 milliards de dollars.
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contamination H5N1 en 2009
-Au début de 2009, des stocks de vaccins Baxter ont été contaminés par la grippe aviaire (H5N1). Des souches mortelles de H5N1 ont été mélangées avec des souches d'un sous-type de H3N2. Ils ont été envoyés à un certain nombre de laboratoires européens[9],[10].  Ce mélange a été détecté par un laboratoire tchèque après avoir tué des animaux[11]. Baxter a reconnu un problème de distribution et a affirmé qu'il n'y avait pas de chance que les vaccins incriminés puissent poser des problèmes à des humains[12].
+          <t>Contamination H5N1 en 2009</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de 2009, des stocks de vaccins Baxter ont été contaminés par la grippe aviaire (H5N1). Des souches mortelles de H5N1 ont été mélangées avec des souches d'un sous-type de H3N2. Ils ont été envoyés à un certain nombre de laboratoires européens,.  Ce mélange a été détecté par un laboratoire tchèque après avoir tué des animaux. Baxter a reconnu un problème de distribution et a affirmé qu'il n'y avait pas de chance que les vaccins incriminés puissent poser des problèmes à des humains.
 </t>
         </is>
       </c>
